--- a/Extracted_Invoice_6.xlsx
+++ b/Extracted_Invoice_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,11 +516,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
@@ -529,7 +525,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
+          <t>Europlak SV Cucine India Ltd</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -539,7 +535,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>1201020921019</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -549,36 +545,36 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Local Supplier</t>
+          <t>Pooja Plywood</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>27AABCE4739Q122</t>
+          <t>27AC0PC8844J1Z4</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2S P Branch Gut n0 1257,Near L0tus Garden Sch00l Village - Wadki, Talika - Haveli,Pune</t>
+          <t>Pre-Laminated MDF Board Prism 2.44X1.83 18mm Int. BSL SF Twist</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>44119219</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>28602.29</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3575.29</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
@@ -587,7 +583,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
+          <t>Europlak SV Cucine India Ltd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -597,7 +593,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>1201020921019</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -607,17 +603,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Local Supplier</t>
+          <t>Pooja Plywood</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>27AABCE4739Q122</t>
+          <t>27AC0PC8844J1Z4</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>f 1Pre-Laminated M0F B0ard Prism 2.44X1.83 18mm 1nt. BSL SF Twist</t>
+          <t>Pro-Laminated MDF Board Prism 2.44X1.22 7.5mm Int, BSL SF</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -626,21 +622,17 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>28602.29</v>
+        <v>148840</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
-        <v>3575.29</v>
+        <v>29768</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
@@ -649,7 +641,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
+          <t>Europlak SV Cucine India Ltd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -659,7 +651,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>1201020921019</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -669,17 +661,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Local Supplier</t>
+          <t>Pooja Plywood</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>27AABCE4739Q122</t>
+          <t>27AC0PC8844J1Z4</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2? {Pr0-Laminated MDF B0ard Prism 2.44X1.22 7.5mm 1nt. BSL SF</t>
+          <t>— |Prelaminated HDHMR Board Prism 2.44 X 1.22 25mm H BSL SF</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -688,17 +680,17 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5214.76</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>108623.13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>89.304</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1216.33</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
@@ -707,7 +699,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
+          <t>Europlak SV Cucine India Ltd</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -717,7 +709,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>1201020921019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -727,17 +719,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Local Supplier</t>
+          <t>Pooja Plywood</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>27AABCE4739Q122</t>
+          <t>27AC0PC8844J1Z4</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>— 1Prelaminated HDHMR B0ard Prism 2.44 X 1.22 25mm H BSL SF</t>
+          <t>Prelaminated HOR Board Prism 2,44 X 1.83 18mm H BSL SF Frosty</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -746,17 +738,17 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>108623.13</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>71505.71000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>89.304</v>
+      </c>
+      <c r="P5" t="n">
+        <v>800.7</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
@@ -765,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
+          <t>Europlak SV Cucine India Ltd</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -775,7 +767,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>1201020921019</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,17 +777,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Local Supplier</t>
+          <t>Pooja Plywood</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>27AABCE4739Q122</t>
+          <t>27AC0PC8844J1Z4</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>fl 4 1Prelaminated H0R B0ard Prism 2,44 X 1.83 18mm H BSL SF Fr0sty</t>
+          <t>Pre-Laminated MDF Board Prism 2.44 X 1.83 18mm Int BSL SF</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -804,21 +796,17 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>71505.71000000001</v>
+        <v>53297.52</v>
       </c>
       <c r="O6" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="P6" t="n">
-        <v>35.75</v>
+        <v>2664.88</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
@@ -827,7 +815,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
+          <t>Europlak SV Cucine India Ltd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -837,7 +825,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>1201020921019</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -847,40 +835,36 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Local Supplier</t>
+          <t>Pooja Plywood</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>27AABCE4739Q122</t>
+          <t>27AC0PC8844J1Z4</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>; &gt; 1Pre-Laminated M0F B0ard Prism 2.44 X 1.83 18mm 1nt. BSL SF</t>
+          <t>Pre-Laminated Partide Board Prism 2.44X1.83 18mm Int. BSL SF</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>44119219</t>
+          <t>44101190</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>93297.52</v>
+        <v>41963.06</v>
       </c>
       <c r="O7" t="n">
         <v>20</v>
       </c>
       <c r="P7" t="n">
-        <v>4664.88</v>
+        <v>2098.15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
@@ -889,7 +873,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
+          <t>Europlak SV Cucine India Ltd</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -899,7 +883,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>412308</t>
+          <t>1201020921019</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -909,203 +893,33 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Local Supplier</t>
+          <t>Pooja Plywood</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>27AABCE4739Q122</t>
+          <t>27AC0PC8844J1Z4</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>i 6 1Pre-Laminated Partide B0ard Prism 2.44X1.83 18mm 1nt. BSL SF</t>
+          <t>Pre-Laminated MOF Board PLM Prism 2.44 X 1.22 7.5mm Int. BSL</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>44101190</t>
+          <t>44119219</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>41963.06</v>
+        <v>31288.55</v>
       </c>
       <c r="O8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P8" t="n">
-        <v>2098.15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sample_Annex_VI</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>412308</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>03/09/2021</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Local Supplier</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>27AABCE4739Q122</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1 4 1Pre-Laminated M0F B0ard PLM Prism 2.44 X 1.22 7.5mm 1nt. BSL</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>44119219</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>31288.55</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sample_Annex_VI</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>412308</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>03/09/2021</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Local Supplier</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>27AABCE4739Q122</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>jl °</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>44101190</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>7553.36</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1201020921019</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sample_Annex_VI</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1 1 an 1ndependent liability created 0n the buyer subject t0 terms and c0nditi0ns s0 menti0ned in the inv0ige. red BY. ee Auth if t0ry 0f digital signature</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>412308</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>03/09/2021</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Local Supplier</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>27AABCE4739Q122</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>44119219</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>3735.76</v>
-      </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+        <v>1042.95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
